--- a/SPLK_UST_ADMIN_LAB.xlsx
+++ b/SPLK_UST_ADMIN_LAB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_UST_ADMIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434169EF-31D3-44B0-9C31-D3EB7D32134A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6F359A-C0D9-4F22-9948-4390B63CC2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92877672-6D86-4AFF-BE6E-F2F05842993E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>SI.No</t>
   </si>
@@ -228,10 +228,64 @@
     <t>34.224.32.138</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>SPLK UST ADMIN LAB</t>
+  </si>
+  <si>
+    <t>18.222.111.116</t>
+  </si>
+  <si>
+    <t>3.145.97.222</t>
+  </si>
+  <si>
+    <t>18.227.228.132</t>
+  </si>
+  <si>
+    <t>3.17.187.36</t>
+  </si>
+  <si>
+    <t>3.149.242.64</t>
+  </si>
+  <si>
+    <t>18.191.181.38</t>
+  </si>
+  <si>
+    <t>3.137.189.248</t>
+  </si>
+  <si>
+    <t>18.222.162.51</t>
+  </si>
+  <si>
+    <t>18.116.8.55</t>
+  </si>
+  <si>
+    <t>3.23.103.74</t>
+  </si>
+  <si>
+    <t>3.145.15.198</t>
+  </si>
+  <si>
+    <t>18.222.113.158</t>
+  </si>
+  <si>
+    <t>3.144.4.104</t>
+  </si>
+  <si>
+    <t>18.119.125.216</t>
+  </si>
+  <si>
+    <t>3.148.244.181</t>
+  </si>
+  <si>
+    <t>18.191.205.111</t>
+  </si>
+  <si>
+    <t>3.142.252.36</t>
+  </si>
+  <si>
+    <t>3.137.223.246</t>
+  </si>
+  <si>
+    <t>URL 3</t>
   </si>
 </sst>
 </file>
@@ -255,7 +309,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -278,32 +332,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -616,318 +671,378 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>63</v>
       </c>
     </row>

--- a/SPLK_UST_ADMIN_LAB.xlsx
+++ b/SPLK_UST_ADMIN_LAB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_UST_ADMIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6F359A-C0D9-4F22-9948-4390B63CC2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09C8151-2E35-483D-927B-706A10F7B254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92877672-6D86-4AFF-BE6E-F2F05842993E}"/>
   </bookViews>
@@ -309,7 +309,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -332,28 +332,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,7 +659,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E2" sqref="E2:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,7 +690,7 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -719,7 +707,7 @@
       <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -736,7 +724,7 @@
       <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -753,7 +741,7 @@
       <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -770,7 +758,7 @@
       <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -787,7 +775,7 @@
       <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -804,7 +792,7 @@
       <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -821,7 +809,7 @@
       <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -838,7 +826,7 @@
       <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -855,7 +843,7 @@
       <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -872,7 +860,7 @@
       <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -889,7 +877,7 @@
       <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -906,7 +894,7 @@
       <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -923,7 +911,7 @@
       <c r="D15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -940,7 +928,7 @@
       <c r="D16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -957,7 +945,7 @@
       <c r="D17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -974,7 +962,7 @@
       <c r="D18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -991,7 +979,7 @@
       <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1008,7 +996,7 @@
       <c r="D20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>82</v>
       </c>
     </row>

--- a/SPLK_UST_ADMIN_LAB.xlsx
+++ b/SPLK_UST_ADMIN_LAB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_UST_ADMIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09C8151-2E35-483D-927B-706A10F7B254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737EC2B1-5A96-401E-A822-781DD1C765B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92877672-6D86-4AFF-BE6E-F2F05842993E}"/>
   </bookViews>
@@ -231,61 +231,61 @@
     <t>SPLK UST ADMIN LAB</t>
   </si>
   <si>
-    <t>18.222.111.116</t>
-  </si>
-  <si>
-    <t>3.145.97.222</t>
-  </si>
-  <si>
-    <t>18.227.228.132</t>
-  </si>
-  <si>
-    <t>3.17.187.36</t>
-  </si>
-  <si>
-    <t>3.149.242.64</t>
-  </si>
-  <si>
-    <t>18.191.181.38</t>
-  </si>
-  <si>
-    <t>3.137.189.248</t>
-  </si>
-  <si>
-    <t>18.222.162.51</t>
-  </si>
-  <si>
-    <t>18.116.8.55</t>
-  </si>
-  <si>
-    <t>3.23.103.74</t>
-  </si>
-  <si>
-    <t>3.145.15.198</t>
-  </si>
-  <si>
-    <t>18.222.113.158</t>
-  </si>
-  <si>
-    <t>3.144.4.104</t>
-  </si>
-  <si>
-    <t>18.119.125.216</t>
-  </si>
-  <si>
-    <t>3.148.244.181</t>
-  </si>
-  <si>
-    <t>18.191.205.111</t>
-  </si>
-  <si>
-    <t>3.142.252.36</t>
-  </si>
-  <si>
-    <t>3.137.223.246</t>
-  </si>
-  <si>
     <t>URL 3</t>
+  </si>
+  <si>
+    <t>3.128.172.9</t>
+  </si>
+  <si>
+    <t>3.144.121.172</t>
+  </si>
+  <si>
+    <t>18.217.203.251</t>
+  </si>
+  <si>
+    <t>3.23.92.182</t>
+  </si>
+  <si>
+    <t>3.144.2.88</t>
+  </si>
+  <si>
+    <t>3.145.80.210</t>
+  </si>
+  <si>
+    <t>3.148.252.170</t>
+  </si>
+  <si>
+    <t>18.224.38.62</t>
+  </si>
+  <si>
+    <t>3.138.37.131</t>
+  </si>
+  <si>
+    <t>3.15.26.214</t>
+  </si>
+  <si>
+    <t>3.17.154.171</t>
+  </si>
+  <si>
+    <t>3.143.3.73</t>
+  </si>
+  <si>
+    <t>18.221.142.2</t>
+  </si>
+  <si>
+    <t>18.118.227.228</t>
+  </si>
+  <si>
+    <t>13.59.230.174</t>
+  </si>
+  <si>
+    <t>3.135.209.86</t>
+  </si>
+  <si>
+    <t>3.145.155.229</t>
+  </si>
+  <si>
+    <t>3.133.149.18</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E22"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -725,7 +725,7 @@
         <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -759,7 +759,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -776,7 +776,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -793,7 +793,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -827,7 +827,7 @@
         <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -844,7 +844,7 @@
         <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
         <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -878,7 +878,7 @@
         <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -895,7 +895,7 @@
         <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -912,7 +912,7 @@
         <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -929,7 +929,7 @@
         <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -946,7 +946,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -963,7 +963,7 @@
         <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -980,7 +980,7 @@
         <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -997,7 +997,7 @@
         <v>61</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">

--- a/SPLK_UST_ADMIN_LAB.xlsx
+++ b/SPLK_UST_ADMIN_LAB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_UST_ADMIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737EC2B1-5A96-401E-A822-781DD1C765B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2564196B-E0D4-4964-ADA0-B008461633F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92877672-6D86-4AFF-BE6E-F2F05842993E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>SI.No</t>
   </si>
@@ -123,16 +123,10 @@
     <t>54.172.38.36</t>
   </si>
   <si>
-    <t>3.93.45.114</t>
-  </si>
-  <si>
     <t>3.93.59.233</t>
   </si>
   <si>
     <t>34.233.128.117</t>
-  </si>
-  <si>
-    <t>3.89.207.10</t>
   </si>
   <si>
     <t>44.223.67.223</t>
@@ -659,7 +653,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +665,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -691,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -705,10 +699,10 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -722,10 +716,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -739,10 +733,10 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -756,10 +750,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -773,10 +767,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -787,13 +781,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -804,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -821,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -838,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -855,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -872,13 +866,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -889,13 +883,13 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -906,13 +900,13 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -923,13 +917,13 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -940,13 +934,13 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -957,13 +951,13 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -974,13 +968,13 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -991,13 +985,13 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1008,13 +1002,13 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1025,13 +1019,13 @@
         <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/SPLK_UST_ADMIN_LAB.xlsx
+++ b/SPLK_UST_ADMIN_LAB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_UST_ADMIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2564196B-E0D4-4964-ADA0-B008461633F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB3A620-3384-4DE4-8252-580118823772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92877672-6D86-4AFF-BE6E-F2F05842993E}"/>
   </bookViews>
@@ -207,9 +207,6 @@
     <t>54.81.44.86</t>
   </si>
   <si>
-    <t>54.91.150.94</t>
-  </si>
-  <si>
     <t>18.234.87.167</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>3.133.149.18</t>
+  </si>
+  <si>
+    <t>3.91.83.62</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,7 +665,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -702,7 +702,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
         <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -753,7 +753,7 @@
         <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -781,13 +781,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -855,7 +855,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -872,7 +872,7 @@
         <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -889,7 +889,7 @@
         <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -906,7 +906,7 @@
         <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
         <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -940,7 +940,7 @@
         <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -954,10 +954,10 @@
         <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -971,10 +971,10 @@
         <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -988,10 +988,10 @@
         <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1005,10 +1005,10 @@
         <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1022,10 +1022,10 @@
         <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/SPLK_UST_ADMIN_LAB.xlsx
+++ b/SPLK_UST_ADMIN_LAB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_UST_ADMIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB3A620-3384-4DE4-8252-580118823772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEFBD61-4180-4026-9795-260BF1A44C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92877672-6D86-4AFF-BE6E-F2F05842993E}"/>
   </bookViews>
@@ -171,9 +171,6 @@
     <t>98.81.168.233</t>
   </si>
   <si>
-    <t>54.90.176.11</t>
-  </si>
-  <si>
     <t>54.208.187.209</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>3.91.83.62</t>
+  </si>
+  <si>
+    <t>54.227.115.182</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,7 +665,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -702,7 +702,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
         <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -750,10 +750,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -767,10 +767,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -781,13 +781,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -801,10 +801,10 @@
         <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -818,10 +818,10 @@
         <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -835,10 +835,10 @@
         <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -852,10 +852,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -869,10 +869,10 @@
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -886,10 +886,10 @@
         <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -903,10 +903,10 @@
         <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -920,10 +920,10 @@
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -937,10 +937,10 @@
         <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -954,10 +954,10 @@
         <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -971,10 +971,10 @@
         <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -988,10 +988,10 @@
         <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1005,10 +1005,10 @@
         <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1022,10 +1022,10 @@
         <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/SPLK_UST_ADMIN_LAB.xlsx
+++ b/SPLK_UST_ADMIN_LAB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_UST_ADMIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEFBD61-4180-4026-9795-260BF1A44C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DA16CA-4964-4C07-B16C-E9D84DD1940F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92877672-6D86-4AFF-BE6E-F2F05842993E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="166">
   <si>
     <t>SI.No</t>
   </si>
@@ -280,13 +280,265 @@
   </si>
   <si>
     <t>54.227.115.182</t>
+  </si>
+  <si>
+    <t>URL - 4</t>
+  </si>
+  <si>
+    <t>URL 5</t>
+  </si>
+  <si>
+    <t>URL 6</t>
+  </si>
+  <si>
+    <t>URL 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.91.76.99      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13.218.40.7     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.234.170.109  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34.204.10.168   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  18.212.254.106  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.93.187.224    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.91.233.121    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34.233.121.151  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.81.229.133    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.235.50.7     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.205.207.67   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.160.229.70   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  18.234.232.145  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34.207.79.230   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  18.234.215.178  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  44.220.146.119  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.80.219.51     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34.229.97.35    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  18.234.112.151  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  18.205.20.41    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.92.66.160     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.87.41.152    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  52.91.130.19    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  100.25.216.143  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  23.21.27.57     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  52.203.255.205  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.80.226.136    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13.218.172.49   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.95.14.22      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  35.175.175.64   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  98.84.150.70    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.234.218.63   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  18.232.170.119  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.85.205.90     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.196.255.42   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.197.27.13    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.89.156.157   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  52.72.161.212   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  98.84.179.242   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.227.111.45   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.95.212.70     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.89.99.187     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.196.183.123  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.83.93.155    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.80.228.234    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.90.86.123     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.87.75.246     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.80.107.21     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.159.44.162   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.90.179.247    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.163.41.42    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34.202.231.111  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.208.18.86     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.165.60.225   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.87.86.102     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.227.0.123    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  204.236.220.56  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34.228.29.233   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34.228.8.64     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.92.4.203      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.234.43.254   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  35.175.199.167  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34.224.91.26    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13.217.223.143  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.95.211.153    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.87.124.236    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.80.93.227     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  107.22.39.191   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.147.25.92    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34.224.61.46    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.89.116.172    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  184.72.212.95   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.208.18.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  204.236.220.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.90.86.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.90.179.248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  98.84.179.243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.196.183.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.227.111.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  54.83.93.156</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,16 +546,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -326,14 +590,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -650,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4323D09A-9AF5-4C83-83EC-F444080BBD80}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,17 +949,25 @@
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,8 +983,20 @@
       <c r="E2" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -704,8 +1012,20 @@
       <c r="E3" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -721,8 +1041,20 @@
       <c r="E4" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -738,8 +1070,20 @@
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -755,8 +1099,20 @@
       <c r="E6" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -772,8 +1128,20 @@
       <c r="E7" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -789,8 +1157,20 @@
       <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -806,8 +1186,20 @@
       <c r="E9" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -823,8 +1215,20 @@
       <c r="E10" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -840,8 +1244,20 @@
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -857,8 +1273,20 @@
       <c r="E12" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -874,8 +1302,20 @@
       <c r="E13" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -891,8 +1331,20 @@
       <c r="E14" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -908,8 +1360,20 @@
       <c r="E15" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -925,8 +1389,20 @@
       <c r="E16" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -942,8 +1418,20 @@
       <c r="E17" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -959,8 +1447,20 @@
       <c r="E18" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -976,8 +1476,20 @@
       <c r="E19" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -993,8 +1505,20 @@
       <c r="E20" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1010,8 +1534,20 @@
       <c r="E21" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1027,11 +1563,24 @@
       <c r="E22" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SPLK_UST_ADMIN_LAB.xlsx
+++ b/SPLK_UST_ADMIN_LAB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_UST_ADMIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DA16CA-4964-4C07-B16C-E9D84DD1940F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EBC2AF-07A4-49E6-B3AB-AB7A5024CEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92877672-6D86-4AFF-BE6E-F2F05842993E}"/>
   </bookViews>
@@ -614,10 +614,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4323D09A-9AF5-4C83-83EC-F444080BBD80}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,25 +948,26 @@
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,20 +983,21 @@
       <c r="E2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1012,20 +1013,21 @@
       <c r="E3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1041,20 +1043,21 @@
       <c r="E4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1070,20 +1073,21 @@
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1099,20 +1103,21 @@
       <c r="E6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1128,20 +1133,21 @@
       <c r="E7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1157,20 +1163,21 @@
       <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1186,20 +1193,21 @@
       <c r="E9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1215,20 +1223,21 @@
       <c r="E10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1244,20 +1253,21 @@
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1273,20 +1283,21 @@
       <c r="E12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1302,20 +1313,21 @@
       <c r="E13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1331,20 +1343,21 @@
       <c r="E14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1360,20 +1373,21 @@
       <c r="E15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1389,20 +1403,21 @@
       <c r="E16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1418,20 +1433,21 @@
       <c r="E17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1447,20 +1463,21 @@
       <c r="E18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1476,20 +1493,21 @@
       <c r="E19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1505,20 +1523,21 @@
       <c r="E20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1534,20 +1553,21 @@
       <c r="E21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1563,22 +1583,23 @@
       <c r="E22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>165</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
